--- a/biology/Biologie cellulaire et moléculaire/Syndrome_de_Kleefstra/Syndrome_de_Kleefstra.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Syndrome_de_Kleefstra/Syndrome_de_Kleefstra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le syndrome de Kleefstra[1] ou deletion 9q34  est une maladie génétique qui est caractérisée par une hypotonie musculaire associée avec un retard mental et un visage particulier.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le syndrome de Kleefstra ou deletion 9q34  est une maladie génétique qui est caractérisée par une hypotonie musculaire associée avec un retard mental et un visage particulier.
 Des malformations peuvent accompagner ce syndrome incluant des malformations cardiaques, rénales et génitale chez les garçons.
 Ce syndrome est causé dans 75 % des cas par une micro délétion au niveau du chromosome neuf au niveau du locus 34.3 (micro délétion 9q34.3) 
 et dans 25 % des cas une mutation du gène EHMT. La très grande majorité de ces anomalies génétiques se fait par mutation de novo.
